--- a/data/view/reports/lad/training/all.xlsx
+++ b/data/view/reports/lad/training/all.xlsx
@@ -94,12 +94,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -123,6 +117,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,30 +429,30 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" style="6" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="73.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="50" style="14" customWidth="1"/>
+    <col min="4" max="4" width="58.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="73.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -463,8 +463,8 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
